--- a/docs/odh/shr-core-Timing-model.xlsx
+++ b/docs/odh/shr-core-Timing-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$5</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>Path</t>
   </si>
@@ -158,11 +158,7 @@
 </t>
   </si>
   <si>
-    <t>A code for the timing schedule.</t>
-  </si>
-  <si>
-    <t>A code for the timing schedule.
-Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
+    <t>A code for the timing schedule (or just text in code.text). Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
   </si>
   <si>
     <t>extensible</t>
@@ -171,34 +167,14 @@
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
   </si>
   <si>
-    <t>shr-core-Timing-model.eventDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DurationRange-model {[]} {[]}
+    <t>shr-core-Timing-model.repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Repeat-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The length of the recurring event.</t>
-  </si>
-  <si>
-    <t>shr-core-Timing-model.recurrencePattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RecurrencePattern-model {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules that describe when a recurring event is scheduled.</t>
-  </si>
-  <si>
-    <t>shr-core-Timing-model.recurrenceRange[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-NumberOfRepeats-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The start and end of the overall recurrence pattern in terms of dates/times or in terms of number of repeats. Could also be an event, such as when all doses are taken.</t>
   </si>
 </sst>
 </file>
@@ -347,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -356,7 +332,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.64453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.46484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -366,7 +342,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="149.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -386,7 +362,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="36.46484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -723,7 +699,7 @@
         <v>46</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -750,11 +726,11 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>36</v>
@@ -789,7 +765,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -812,13 +788,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -869,7 +845,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -884,202 +860,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" hidden="true">
-      <c r="A6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
-      <c r="A7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AI7">
+  <autoFilter ref="A1:AI5">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1089,7 +871,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI6">
+  <conditionalFormatting sqref="A2:AI4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
